--- a/VR Karting/Results/6402.xlsx
+++ b/VR Karting/Results/6402.xlsx
@@ -3,24 +3,28 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="11820" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="20380" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PRE" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Word Accuracies" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Contrast Accuracies" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -37,6 +41,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -48,12 +59,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -68,11 +94,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4108,7 +4137,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4205,574 +4234,740 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.205601</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.32774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.179329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.677876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.098042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.87434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.040863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.406799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.642052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.320068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.9117126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3.322601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.5</v>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.7618713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.7785034</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.650581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.9312286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.880569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.043182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>1</v>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.9635162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.5</v>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.609375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.147385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.452545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.224823</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.807281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.52887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.266495</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.4931488</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.5</v>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.681931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.556076</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.5</v>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.518997</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.23439</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3.215378</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5453796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.6300049</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.9621277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.9554138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.5</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.99469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.8320618</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8297118999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.840729</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.8710327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.228424</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.396759</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.149231</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2.406067</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.604279</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.050873</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.5</v>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.6510010000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.932037</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.5</v>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.226776</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.099731</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.315826</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0</v>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.7462463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.674011</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.949127</v>
       </c>
     </row>
     <row r="57">
@@ -4781,12 +4976,730 @@
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.95417</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.113979</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.459366</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.095177</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.340874</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.67865</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.722008</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.065567</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.59082</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3986588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.950714</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.8161087</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.581055</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.509514</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.595184</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.712677</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.44809</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.114227</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.569763</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.623642</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.13826</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.123077</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.952621</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.979492</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.847961</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.155182</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.9863434</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.20871</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.260513</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.66716</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.132141</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.912476</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.713562</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.5754089</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2.062317</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.712708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.432892</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.9069824</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.088837</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>3.184296</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.786774</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.305573</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>3.012024</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.7509766</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.420319</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.702972</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.650818</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.760864</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.7235718</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>3.929016</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>2.416016</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.6323242</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.8910217</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.913361</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.5732422</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.264374</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4796,7 +5709,1680 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.909328</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.8999748</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.61673</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.062416</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.153046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.350311</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.947464</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2.48069</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.565277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.040245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.285156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.606163</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.892624</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.360291</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.371437</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.818909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.9627228</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.226471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.158356</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.047028</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>3.648895</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.189438</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.4494171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.050766</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.087723</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.888504</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.109924</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.6052856</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.031631</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.028778</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.524719</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.258087</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.6152191</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.9916382</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.068359</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.217865</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.9334717</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.203125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2.146667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.768616</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.990448</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.597046</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.622162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.337769</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2.052124</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.379364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2.196411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.235352</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7419434</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.097443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.967255</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.127289</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.048126</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.478149</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.8802489999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2.383484</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.45318</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.397041</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.021702</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.552135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.6709862</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.097679</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.254967</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.491333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.363762</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.540337</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.374115</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.760178</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.488022</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.7659836</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.444138</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.010361</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.899719</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.842911</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.6449279999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.084686</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.182159</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.957962</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.606476</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.9348907</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.198853</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.4956818</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.056671</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.630569</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8802643</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.904968</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.767471</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.992691</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.754089</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.9631958</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.822144</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.268707</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.832672</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.356537</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.954071</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.942078</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.6177368</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>3.355438</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.6855164</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.8255005</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.645935</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.8162537</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.539032</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.064575</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2.41153</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.60022</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8519287</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.328247</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2.572449</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.189484</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.831665</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.931763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,14 +7391,961 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
         </is>
       </c>
     </row>
@@ -4825,6 +8358,12 @@
       <c r="B2" t="n">
         <v>0.6785714285714286</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4835,6 +8374,12 @@
       <c r="B3" t="n">
         <v>0.6785714285714286</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4845,6 +8390,12 @@
       <c r="B4" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4854,6 +8405,12 @@
       </c>
       <c r="B5" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8214285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/6402.xlsx
+++ b/VR Karting/Results/6402.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="2160" windowWidth="20380" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="920" yWindow="2640" windowWidth="20380" windowHeight="17440" tabRatio="600" firstSheet="2" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,8 +13,13 @@
     <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1950,6 +1955,5181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9035759</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.8617553999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.60569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.23201</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.7720413</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.6101</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.4186249</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.14389</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.628159</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.7556915</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.086464</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.482071</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.655548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.468643</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3.323029</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.106644</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.4683685</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.890015</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.9048003999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.122192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.9817352</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.79747</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.665619</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.299225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.4220581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.477402</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3.289932</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.606186</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.218933</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.7434998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.8018494</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.8562622</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.8291626</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.700958</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.161621</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.387543</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.8743896</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.85318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.041351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.686157</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2.066284</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.498322</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.144745</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.774597</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.271637</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.96344</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2.309143</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9226379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.276093</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.259613</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.27243</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.8071289</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.8659668</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>3.084198</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.370819</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.3997803</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.030125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.433954</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.530193</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.1894302</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2.158512</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.9966698000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.4070435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.5774689</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.8361969</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.229256</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.221146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.2508469</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.367149</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5819855</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.9422455</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.25946</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3.380005</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.6993256</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.9457092</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.327866</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.615448</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.5716248</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.559982</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>4.2155</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.8560028</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.676254</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.485626</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.153702</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8135223</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.5851593</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.420929</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.9984436</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>3.510162</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.370636</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.338013</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.9155273</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.7108459</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.19397</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.7991333</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.321167</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.2817688</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.092651</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.956055</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9273682</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.8459778</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.212677</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>3.707489</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.800293</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.841156</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.094604</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.038788</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.315247</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.8302917</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.585724</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.8257141</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.097412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -7285,7 +12465,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -7382,514 +12562,415 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.356903</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>0.8504105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
+        <v>1.773071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>1.903206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
+        <v>1.11702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>1.153687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.5</v>
+        <v>1.375351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.5</v>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>1.890137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>2.567627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>2.479019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>1.675858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.5</v>
+        <v>3.132263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.5</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>1.12207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.5</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>0.9663086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>3.39624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>1.808914</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6582489</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
+        <v>1.225327</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.5</v>
+        <v>1.993683</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>3.381805</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.5</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>0.9656067</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>1.349457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0.5</v>
+        <v>1.441681</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>1.334976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>2.329285</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>1.932373</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>1.957489</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>0.8294373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.5</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>1.342651</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>1.09903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.5</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
+        <v>0.9598694</v>
       </c>
     </row>
     <row r="32">
@@ -7898,418 +12979,1055 @@
           <t>man</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0.5</v>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.5</v>
+        <v>1.296265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
+        <v>1.110748</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
+        <v>0.8651733</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
+        <v>1.444183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9299011</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
+        <v>2.046661</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.5</v>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>1.448853</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
+        <v>3.12027</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6530151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.5</v>
+        <v>2.197723</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.5</v>
+        <v>3.64859</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.5</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
+        <v>1.127167</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
+        <v>1.803436</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
+        <v>2.532288</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
+        <v>1.928436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
+        <v>1.322723</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
+        <v>1.41507</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.5</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
+        <v>3.00296</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
+        <v>2.336182</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.5</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9642639</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
+        <v>1.706207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
+        <v>1.435913</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0.5</v>
+        <v>1.748779</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
+        <v>1.038879</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
+        <v>0.8093872</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>3.294008</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.675362</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.7890778000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.8854599</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.415409</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.943905</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.964661</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.483223</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2.667397</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3985291</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.570923</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.956734</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.178337</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.080727</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.246407</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.52034</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.570328</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.634201</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.6401520000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3.650146</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.509613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.240814</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.693542</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.548599</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.811829</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.143433</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.796371</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.369049</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.593399</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.141006</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.078522</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.8864441</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.4960022</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.018372</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.048889</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.808868</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.7246094</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.108704</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.572815</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.9219971</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.483459</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.779327</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.8813171</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.001434</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>3.253052</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.7388916</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.157928</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.546295</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2.035889</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.805908</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.198456</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.309937</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.061707</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.901917</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.76532</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.6391296</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8319,101 +14037,95 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7142857142857143</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8214285714285714</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8214285714285714</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>